--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value258.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value258.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8307672455344041</v>
+        <v>1.757380843162537</v>
       </c>
       <c r="B1">
-        <v>0.9311229808102159</v>
+        <v>2.58054518699646</v>
       </c>
       <c r="C1">
-        <v>1.132510414950516</v>
+        <v>2.827648401260376</v>
       </c>
       <c r="D1">
-        <v>2.079362096574664</v>
+        <v>3.394381523132324</v>
       </c>
       <c r="E1">
-        <v>3.79412233834132</v>
+        <v>1.206219911575317</v>
       </c>
     </row>
   </sheetData>
